--- a/database/industries/lastic/pekavir/cashflow/yearly.xlsx
+++ b/database/industries/lastic/pekavir/cashflow/yearly.xlsx
@@ -192,6 +192,11 @@
     <col min="6" max="6" width="29" customWidth="1"/>
     <col min="7" max="7" width="29" customWidth="1"/>
     <col min="8" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="29" customWidth="1"/>
+    <col min="11" max="11" width="29" customWidth="1"/>
+    <col min="12" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -216,6 +221,21 @@
       <c r="H1" s="2">
         <v/>
       </c>
+      <c r="I1" s="2">
+        <v/>
+      </c>
+      <c r="J1" s="2">
+        <v/>
+      </c>
+      <c r="K1" s="2">
+        <v/>
+      </c>
+      <c r="L1" s="2">
+        <v/>
+      </c>
+      <c r="M1" s="2">
+        <v/>
+      </c>
     </row>
     <row r="2">
       <c r="B2" s="3" t="inlineStr">
@@ -241,6 +261,21 @@
       <c r="H2" s="2">
         <v/>
       </c>
+      <c r="I2" s="2">
+        <v/>
+      </c>
+      <c r="J2" s="2">
+        <v/>
+      </c>
+      <c r="K2" s="2">
+        <v/>
+      </c>
+      <c r="L2" s="2">
+        <v/>
+      </c>
+      <c r="M2" s="2">
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="B3" s="4" t="inlineStr">
@@ -266,6 +301,21 @@
       <c r="H3" s="2">
         <v/>
       </c>
+      <c r="I3" s="2">
+        <v/>
+      </c>
+      <c r="J3" s="2">
+        <v/>
+      </c>
+      <c r="K3" s="2">
+        <v/>
+      </c>
+      <c r="L3" s="2">
+        <v/>
+      </c>
+      <c r="M3" s="2">
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="B4" s="2">
@@ -289,6 +339,21 @@
       <c r="H4" s="2">
         <v/>
       </c>
+      <c r="I4" s="2">
+        <v/>
+      </c>
+      <c r="J4" s="2">
+        <v/>
+      </c>
+      <c r="K4" s="2">
+        <v/>
+      </c>
+      <c r="L4" s="2">
+        <v/>
+      </c>
+      <c r="M4" s="2">
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="B5" s="5" t="inlineStr">
@@ -314,6 +379,21 @@
       <c r="H5" s="5">
         <v/>
       </c>
+      <c r="I5" s="5">
+        <v/>
+      </c>
+      <c r="J5" s="5">
+        <v/>
+      </c>
+      <c r="K5" s="5">
+        <v/>
+      </c>
+      <c r="L5" s="5">
+        <v/>
+      </c>
+      <c r="M5" s="5">
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="B6" s="6" t="inlineStr">
@@ -339,6 +419,21 @@
       <c r="H6" s="5">
         <v/>
       </c>
+      <c r="I6" s="5">
+        <v/>
+      </c>
+      <c r="J6" s="5">
+        <v/>
+      </c>
+      <c r="K6" s="5">
+        <v/>
+      </c>
+      <c r="L6" s="5">
+        <v/>
+      </c>
+      <c r="M6" s="5">
+        <v/>
+      </c>
     </row>
     <row r="7">
       <c r="B7" s="2">
@@ -362,6 +457,21 @@
       <c r="H7" s="2">
         <v/>
       </c>
+      <c r="I7" s="2">
+        <v/>
+      </c>
+      <c r="J7" s="2">
+        <v/>
+      </c>
+      <c r="K7" s="2">
+        <v/>
+      </c>
+      <c r="L7" s="2">
+        <v/>
+      </c>
+      <c r="M7" s="2">
+        <v/>
+      </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
@@ -374,25 +484,50 @@
       </c>
       <c r="D8" s="7" t="inlineStr">
         <is>
+          <t>12 ماهه منتهی به 1391/09</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="inlineStr">
+        <is>
+          <t>12 ماهه منتهی به 1392/09</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr">
+        <is>
+          <t>12 ماهه منتهی به 1393/09</t>
+        </is>
+      </c>
+      <c r="G8" s="7" t="inlineStr">
+        <is>
+          <t>12 ماهه منتهی به 1394/09</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr">
+        <is>
+          <t>12 ماهه منتهی به 1395/09</t>
+        </is>
+      </c>
+      <c r="I8" s="7" t="inlineStr">
+        <is>
           <t>12 ماهه منتهی به 1396/09</t>
         </is>
       </c>
-      <c r="E8" s="7" t="inlineStr">
+      <c r="J8" s="7" t="inlineStr">
         <is>
           <t>12 ماهه منتهی به 1397/09</t>
         </is>
       </c>
-      <c r="F8" s="7" t="inlineStr">
+      <c r="K8" s="7" t="inlineStr">
         <is>
           <t>12 ماهه منتهی به 1398/09</t>
         </is>
       </c>
-      <c r="G8" s="7" t="inlineStr">
+      <c r="L8" s="7" t="inlineStr">
         <is>
           <t>12 ماهه منتهی به 1399/09</t>
         </is>
       </c>
-      <c r="H8" s="7" t="inlineStr">
+      <c r="M8" s="7" t="inlineStr">
         <is>
           <t>12 ماهه منتهی به 1400/09</t>
         </is>
@@ -409,27 +544,52 @@
       </c>
       <c r="D9" s="10" t="inlineStr">
         <is>
+          <t>1392-11-17 (2)</t>
+        </is>
+      </c>
+      <c r="E9" s="10" t="inlineStr">
+        <is>
+          <t>1393-11-21 (6)</t>
+        </is>
+      </c>
+      <c r="F9" s="10" t="inlineStr">
+        <is>
+          <t>1394-11-21 (7)</t>
+        </is>
+      </c>
+      <c r="G9" s="10" t="inlineStr">
+        <is>
+          <t>1395-12-04 (9)</t>
+        </is>
+      </c>
+      <c r="H9" s="10" t="inlineStr">
+        <is>
+          <t>1396-12-03 (8)</t>
+        </is>
+      </c>
+      <c r="I9" s="10" t="inlineStr">
+        <is>
           <t>1397-12-01 (10)</t>
         </is>
       </c>
-      <c r="E9" s="10" t="inlineStr">
+      <c r="J9" s="10" t="inlineStr">
         <is>
           <t>1398-11-28 (11)</t>
         </is>
       </c>
-      <c r="F9" s="10" t="inlineStr">
+      <c r="K9" s="10" t="inlineStr">
         <is>
           <t>1399-12-02 (8)</t>
         </is>
       </c>
-      <c r="G9" s="10" t="inlineStr">
+      <c r="L9" s="10" t="inlineStr">
         <is>
           <t>1400-12-02 (9)</t>
         </is>
       </c>
-      <c r="H9" s="10" t="inlineStr">
-        <is>
-          <t>1401-05-31 (5)</t>
+      <c r="M9" s="10" t="inlineStr">
+        <is>
+          <t>1401-07-30 (6)</t>
         </is>
       </c>
     </row>
@@ -455,6 +615,21 @@
       <c r="H10" s="12">
         <v/>
       </c>
+      <c r="I10" s="12">
+        <v/>
+      </c>
+      <c r="J10" s="12">
+        <v/>
+      </c>
+      <c r="K10" s="12">
+        <v/>
+      </c>
+      <c r="L10" s="12">
+        <v/>
+      </c>
+      <c r="M10" s="12">
+        <v/>
+      </c>
     </row>
     <row r="11">
       <c r="B11" s="13" t="inlineStr">
@@ -480,6 +655,21 @@
       <c r="H11" s="14">
         <v/>
       </c>
+      <c r="I11" s="14">
+        <v/>
+      </c>
+      <c r="J11" s="14">
+        <v/>
+      </c>
+      <c r="K11" s="14">
+        <v/>
+      </c>
+      <c r="L11" s="14">
+        <v/>
+      </c>
+      <c r="M11" s="14">
+        <v/>
+      </c>
     </row>
     <row r="12">
       <c r="B12" s="15" t="inlineStr">
@@ -491,20 +681,35 @@
         <v/>
       </c>
       <c r="D12" s="16">
+        <v>159501</v>
+      </c>
+      <c r="E12" s="16">
+        <v>678871</v>
+      </c>
+      <c r="F12" s="16">
+        <v>1079366</v>
+      </c>
+      <c r="G12" s="16">
+        <v>-187220</v>
+      </c>
+      <c r="H12" s="16">
+        <v>610203</v>
+      </c>
+      <c r="I12" s="16">
         <v>531353</v>
       </c>
-      <c r="E12" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F12" s="16">
+      <c r="J12" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K12" s="16">
         <v>845226</v>
       </c>
-      <c r="G12" s="16">
+      <c r="L12" s="16">
         <v>662680</v>
       </c>
-      <c r="H12" s="16">
+      <c r="M12" s="16">
         <v>690227</v>
       </c>
     </row>
@@ -518,18 +723,33 @@
         <v/>
       </c>
       <c r="D13" s="12">
+        <v>-5765</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0</v>
+      </c>
+      <c r="F13" s="12">
+        <v>-71473</v>
+      </c>
+      <c r="G13" s="12">
+        <v>-218669</v>
+      </c>
+      <c r="H13" s="12">
+        <v>-160071</v>
+      </c>
+      <c r="I13" s="12">
         <v>-178038</v>
       </c>
-      <c r="E13" s="12">
+      <c r="J13" s="12">
         <v>-33907</v>
       </c>
-      <c r="F13" s="12">
+      <c r="K13" s="12">
         <v>-12897</v>
       </c>
-      <c r="G13" s="12">
+      <c r="L13" s="12">
         <v>-176793</v>
       </c>
-      <c r="H13" s="12">
+      <c r="M13" s="12">
         <v>-234559</v>
       </c>
     </row>
@@ -543,18 +763,33 @@
         <v/>
       </c>
       <c r="D14" s="18">
+        <v>153736</v>
+      </c>
+      <c r="E14" s="18">
+        <v>678871</v>
+      </c>
+      <c r="F14" s="18">
+        <v>1007893</v>
+      </c>
+      <c r="G14" s="18">
+        <v>-405889</v>
+      </c>
+      <c r="H14" s="18">
+        <v>450132</v>
+      </c>
+      <c r="I14" s="18">
         <v>353315</v>
       </c>
-      <c r="E14" s="18">
+      <c r="J14" s="18">
         <v>64595</v>
       </c>
-      <c r="F14" s="18">
+      <c r="K14" s="18">
         <v>832329</v>
       </c>
-      <c r="G14" s="18">
+      <c r="L14" s="18">
         <v>485887</v>
       </c>
-      <c r="H14" s="18">
+      <c r="M14" s="18">
         <v>455668</v>
       </c>
     </row>
@@ -582,6 +817,21 @@
       <c r="H15" s="14">
         <v/>
       </c>
+      <c r="I15" s="14">
+        <v/>
+      </c>
+      <c r="J15" s="14">
+        <v/>
+      </c>
+      <c r="K15" s="14">
+        <v/>
+      </c>
+      <c r="L15" s="14">
+        <v/>
+      </c>
+      <c r="M15" s="14">
+        <v/>
+      </c>
     </row>
     <row r="16">
       <c r="B16" s="15" t="inlineStr">
@@ -593,18 +843,33 @@
         <v/>
       </c>
       <c r="D16" s="16">
+        <v>2454</v>
+      </c>
+      <c r="E16" s="16">
+        <v>9</v>
+      </c>
+      <c r="F16" s="16">
+        <v>16905</v>
+      </c>
+      <c r="G16" s="16">
+        <v>7180</v>
+      </c>
+      <c r="H16" s="16">
+        <v>972</v>
+      </c>
+      <c r="I16" s="16">
         <v>163</v>
       </c>
-      <c r="E16" s="16">
+      <c r="J16" s="16">
         <v>874</v>
       </c>
-      <c r="F16" s="16">
+      <c r="K16" s="16">
         <v>9989</v>
       </c>
-      <c r="G16" s="16">
+      <c r="L16" s="16">
         <v>242453</v>
       </c>
-      <c r="H16" s="16">
+      <c r="M16" s="16">
         <v>0</v>
       </c>
     </row>
@@ -618,18 +883,33 @@
         <v/>
       </c>
       <c r="D17" s="12">
+        <v>-24244</v>
+      </c>
+      <c r="E17" s="12">
+        <v>-55561</v>
+      </c>
+      <c r="F17" s="12">
+        <v>-66335</v>
+      </c>
+      <c r="G17" s="12">
+        <v>-58578</v>
+      </c>
+      <c r="H17" s="12">
+        <v>-210765</v>
+      </c>
+      <c r="I17" s="12">
         <v>-228305</v>
       </c>
-      <c r="E17" s="12">
+      <c r="J17" s="12">
         <v>-138195</v>
       </c>
-      <c r="F17" s="12">
+      <c r="K17" s="12">
         <v>-581021</v>
       </c>
-      <c r="G17" s="12">
+      <c r="L17" s="12">
         <v>-1875558</v>
       </c>
-      <c r="H17" s="12">
+      <c r="M17" s="12">
         <v>-2764948</v>
       </c>
     </row>
@@ -652,13 +932,38 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F18" s="16">
-        <v>0</v>
-      </c>
-      <c r="G18" s="16">
-        <v>0</v>
-      </c>
-      <c r="H18" s="16">
+      <c r="F18" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G18" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H18" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I18" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J18" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K18" s="16">
+        <v>0</v>
+      </c>
+      <c r="L18" s="16">
+        <v>0</v>
+      </c>
+      <c r="M18" s="16">
         <v>0</v>
       </c>
     </row>
@@ -672,18 +977,33 @@
         <v/>
       </c>
       <c r="D19" s="12">
+        <v>0</v>
+      </c>
+      <c r="E19" s="12">
+        <v>20406</v>
+      </c>
+      <c r="F19" s="12">
+        <v>185</v>
+      </c>
+      <c r="G19" s="12">
+        <v>4</v>
+      </c>
+      <c r="H19" s="12">
+        <v>5</v>
+      </c>
+      <c r="I19" s="12">
         <v>17</v>
       </c>
-      <c r="E19" s="12">
-        <v>0</v>
-      </c>
-      <c r="F19" s="12">
-        <v>0</v>
-      </c>
-      <c r="G19" s="12">
-        <v>0</v>
-      </c>
-      <c r="H19" s="12">
+      <c r="J19" s="12">
+        <v>0</v>
+      </c>
+      <c r="K19" s="12">
+        <v>0</v>
+      </c>
+      <c r="L19" s="12">
+        <v>0</v>
+      </c>
+      <c r="M19" s="12">
         <v>0</v>
       </c>
     </row>
@@ -697,18 +1017,33 @@
         <v/>
       </c>
       <c r="D20" s="16">
+        <v>-152</v>
+      </c>
+      <c r="E20" s="16">
+        <v>-241</v>
+      </c>
+      <c r="F20" s="16">
+        <v>-76</v>
+      </c>
+      <c r="G20" s="16">
+        <v>-88</v>
+      </c>
+      <c r="H20" s="16">
+        <v>-671</v>
+      </c>
+      <c r="I20" s="16">
         <v>-1187</v>
       </c>
-      <c r="E20" s="16">
+      <c r="J20" s="16">
         <v>-144</v>
       </c>
-      <c r="F20" s="16">
+      <c r="K20" s="16">
         <v>-24901</v>
       </c>
-      <c r="G20" s="16">
+      <c r="L20" s="16">
         <v>-1510</v>
       </c>
-      <c r="H20" s="16">
+      <c r="M20" s="16">
         <v>-40870</v>
       </c>
     </row>
@@ -721,19 +1056,40 @@
       <c r="C21" s="12">
         <v/>
       </c>
-      <c r="D21" s="12">
-        <v>0</v>
-      </c>
-      <c r="E21" s="12">
-        <v>0</v>
-      </c>
-      <c r="F21" s="12">
-        <v>0</v>
+      <c r="D21" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E21" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F21" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G21" s="12">
         <v>0</v>
       </c>
       <c r="H21" s="12">
+        <v>0</v>
+      </c>
+      <c r="I21" s="12">
+        <v>0</v>
+      </c>
+      <c r="J21" s="12">
+        <v>0</v>
+      </c>
+      <c r="K21" s="12">
+        <v>0</v>
+      </c>
+      <c r="L21" s="12">
+        <v>0</v>
+      </c>
+      <c r="M21" s="12">
         <v>0</v>
       </c>
     </row>
@@ -746,19 +1102,40 @@
       <c r="C22" s="16">
         <v/>
       </c>
-      <c r="D22" s="16">
-        <v>0</v>
-      </c>
-      <c r="E22" s="16">
-        <v>0</v>
-      </c>
-      <c r="F22" s="16">
-        <v>0</v>
+      <c r="D22" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E22" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F22" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G22" s="16">
         <v>0</v>
       </c>
       <c r="H22" s="16">
+        <v>0</v>
+      </c>
+      <c r="I22" s="16">
+        <v>0</v>
+      </c>
+      <c r="J22" s="16">
+        <v>0</v>
+      </c>
+      <c r="K22" s="16">
+        <v>0</v>
+      </c>
+      <c r="L22" s="16">
+        <v>0</v>
+      </c>
+      <c r="M22" s="16">
         <v>0</v>
       </c>
     </row>
@@ -778,12 +1155,27 @@
         <v>0</v>
       </c>
       <c r="F23" s="12">
+        <v>0</v>
+      </c>
+      <c r="G23" s="12">
+        <v>0</v>
+      </c>
+      <c r="H23" s="12">
+        <v>0</v>
+      </c>
+      <c r="I23" s="12">
+        <v>0</v>
+      </c>
+      <c r="J23" s="12">
+        <v>0</v>
+      </c>
+      <c r="K23" s="12">
         <v>11280</v>
       </c>
-      <c r="G23" s="12">
-        <v>0</v>
-      </c>
-      <c r="H23" s="12">
+      <c r="L23" s="12">
+        <v>0</v>
+      </c>
+      <c r="M23" s="12">
         <v>0</v>
       </c>
     </row>
@@ -800,15 +1192,30 @@
         <v>0</v>
       </c>
       <c r="E24" s="16">
+        <v>0</v>
+      </c>
+      <c r="F24" s="16">
+        <v>0</v>
+      </c>
+      <c r="G24" s="16">
+        <v>0</v>
+      </c>
+      <c r="H24" s="16">
+        <v>-194</v>
+      </c>
+      <c r="I24" s="16">
+        <v>0</v>
+      </c>
+      <c r="J24" s="16">
         <v>-4077</v>
       </c>
-      <c r="F24" s="16">
+      <c r="K24" s="16">
         <v>-15175</v>
       </c>
-      <c r="G24" s="16">
+      <c r="L24" s="16">
         <v>-1693</v>
       </c>
-      <c r="H24" s="16">
+      <c r="M24" s="16">
         <v>-82711</v>
       </c>
     </row>
@@ -822,18 +1229,33 @@
         <v/>
       </c>
       <c r="D25" s="12">
+        <v>0</v>
+      </c>
+      <c r="E25" s="12">
+        <v>0</v>
+      </c>
+      <c r="F25" s="12">
+        <v>0</v>
+      </c>
+      <c r="G25" s="12">
+        <v>67596</v>
+      </c>
+      <c r="H25" s="12">
+        <v>5085</v>
+      </c>
+      <c r="I25" s="12">
         <v>47758</v>
       </c>
-      <c r="E25" s="12">
-        <v>0</v>
-      </c>
-      <c r="F25" s="12">
-        <v>0</v>
-      </c>
-      <c r="G25" s="12">
+      <c r="J25" s="12">
+        <v>0</v>
+      </c>
+      <c r="K25" s="12">
+        <v>0</v>
+      </c>
+      <c r="L25" s="12">
         <v>100000</v>
       </c>
-      <c r="H25" s="12">
+      <c r="M25" s="12">
         <v>0</v>
       </c>
     </row>
@@ -847,18 +1269,33 @@
         <v/>
       </c>
       <c r="D26" s="16">
-        <v>0</v>
+        <v>-26736</v>
       </c>
       <c r="E26" s="16">
+        <v>0</v>
+      </c>
+      <c r="F26" s="16">
+        <v>-64345</v>
+      </c>
+      <c r="G26" s="16">
+        <v>-127337</v>
+      </c>
+      <c r="H26" s="16">
+        <v>0</v>
+      </c>
+      <c r="I26" s="16">
+        <v>0</v>
+      </c>
+      <c r="J26" s="16">
         <v>-20000</v>
       </c>
-      <c r="F26" s="16">
+      <c r="K26" s="16">
         <v>-36000</v>
       </c>
-      <c r="G26" s="16">
+      <c r="L26" s="16">
         <v>-52000</v>
       </c>
-      <c r="H26" s="16">
+      <c r="M26" s="16">
         <v>0</v>
       </c>
     </row>
@@ -871,19 +1308,40 @@
       <c r="C27" s="12">
         <v/>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E27" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F27" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G27" s="12">
+        <v>0</v>
+      </c>
+      <c r="H27" s="12">
+        <v>0</v>
+      </c>
+      <c r="I27" s="12">
         <v>10</v>
       </c>
-      <c r="E27" s="12">
-        <v>0</v>
-      </c>
-      <c r="F27" s="12">
-        <v>0</v>
-      </c>
-      <c r="G27" s="12">
-        <v>0</v>
-      </c>
-      <c r="H27" s="12">
+      <c r="J27" s="12">
+        <v>0</v>
+      </c>
+      <c r="K27" s="12">
+        <v>0</v>
+      </c>
+      <c r="L27" s="12">
+        <v>0</v>
+      </c>
+      <c r="M27" s="12">
         <v>0</v>
       </c>
     </row>
@@ -896,19 +1354,40 @@
       <c r="C28" s="16">
         <v/>
       </c>
-      <c r="D28" s="16">
-        <v>0</v>
-      </c>
-      <c r="E28" s="16">
-        <v>0</v>
-      </c>
-      <c r="F28" s="16">
-        <v>0</v>
+      <c r="D28" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E28" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F28" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G28" s="16">
         <v>0</v>
       </c>
       <c r="H28" s="16">
+        <v>0</v>
+      </c>
+      <c r="I28" s="16">
+        <v>0</v>
+      </c>
+      <c r="J28" s="16">
+        <v>0</v>
+      </c>
+      <c r="K28" s="16">
+        <v>0</v>
+      </c>
+      <c r="L28" s="16">
+        <v>0</v>
+      </c>
+      <c r="M28" s="16">
         <v>0</v>
       </c>
     </row>
@@ -931,13 +1410,38 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F29" s="12">
-        <v>0</v>
-      </c>
-      <c r="G29" s="12">
-        <v>0</v>
-      </c>
-      <c r="H29" s="12">
+      <c r="F29" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G29" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H29" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I29" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J29" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K29" s="12">
+        <v>0</v>
+      </c>
+      <c r="L29" s="12">
+        <v>0</v>
+      </c>
+      <c r="M29" s="12">
         <v>0</v>
       </c>
     </row>
@@ -957,12 +1461,27 @@
         <v>0</v>
       </c>
       <c r="F30" s="16">
+        <v>263</v>
+      </c>
+      <c r="G30" s="16">
+        <v>0</v>
+      </c>
+      <c r="H30" s="16">
+        <v>0</v>
+      </c>
+      <c r="I30" s="16">
+        <v>0</v>
+      </c>
+      <c r="J30" s="16">
+        <v>0</v>
+      </c>
+      <c r="K30" s="16">
         <v>22859</v>
       </c>
-      <c r="G30" s="16">
+      <c r="L30" s="16">
         <v>1</v>
       </c>
-      <c r="H30" s="16">
+      <c r="M30" s="16">
         <v>0</v>
       </c>
     </row>
@@ -976,18 +1495,33 @@
         <v/>
       </c>
       <c r="D31" s="12">
+        <v>2412</v>
+      </c>
+      <c r="E31" s="12">
+        <v>13031</v>
+      </c>
+      <c r="F31" s="12">
+        <v>89864</v>
+      </c>
+      <c r="G31" s="12">
+        <v>43485</v>
+      </c>
+      <c r="H31" s="12">
+        <v>32180</v>
+      </c>
+      <c r="I31" s="12">
         <v>33782</v>
       </c>
-      <c r="E31" s="12">
+      <c r="J31" s="12">
         <v>15368</v>
       </c>
-      <c r="F31" s="12">
-        <v>0</v>
-      </c>
-      <c r="G31" s="12">
+      <c r="K31" s="12">
+        <v>0</v>
+      </c>
+      <c r="L31" s="12">
         <v>40421</v>
       </c>
-      <c r="H31" s="12">
+      <c r="M31" s="12">
         <v>13370</v>
       </c>
     </row>
@@ -1001,18 +1535,33 @@
         <v/>
       </c>
       <c r="D32" s="18">
+        <v>-46266</v>
+      </c>
+      <c r="E32" s="18">
+        <v>-22356</v>
+      </c>
+      <c r="F32" s="18">
+        <v>-23539</v>
+      </c>
+      <c r="G32" s="18">
+        <v>-67738</v>
+      </c>
+      <c r="H32" s="18">
+        <v>-173388</v>
+      </c>
+      <c r="I32" s="18">
         <v>-147762</v>
       </c>
-      <c r="E32" s="18">
+      <c r="J32" s="18">
         <v>-161542</v>
       </c>
-      <c r="F32" s="18">
+      <c r="K32" s="18">
         <v>-612969</v>
       </c>
-      <c r="G32" s="18">
+      <c r="L32" s="18">
         <v>-1547886</v>
       </c>
-      <c r="H32" s="18">
+      <c r="M32" s="18">
         <v>-2875159</v>
       </c>
     </row>
@@ -1026,18 +1575,33 @@
         <v/>
       </c>
       <c r="D33" s="20">
+        <v>107470</v>
+      </c>
+      <c r="E33" s="20">
+        <v>656515</v>
+      </c>
+      <c r="F33" s="20">
+        <v>984354</v>
+      </c>
+      <c r="G33" s="20">
+        <v>-473627</v>
+      </c>
+      <c r="H33" s="20">
+        <v>276744</v>
+      </c>
+      <c r="I33" s="20">
         <v>205553</v>
       </c>
-      <c r="E33" s="20">
+      <c r="J33" s="20">
         <v>-367991</v>
       </c>
-      <c r="F33" s="20">
+      <c r="K33" s="20">
         <v>219360</v>
       </c>
-      <c r="G33" s="20">
+      <c r="L33" s="20">
         <v>-1061999</v>
       </c>
-      <c r="H33" s="20">
+      <c r="M33" s="20">
         <v>-2419491</v>
       </c>
     </row>
@@ -1065,6 +1629,21 @@
       <c r="H34" s="14">
         <v/>
       </c>
+      <c r="I34" s="14">
+        <v/>
+      </c>
+      <c r="J34" s="14">
+        <v/>
+      </c>
+      <c r="K34" s="14">
+        <v/>
+      </c>
+      <c r="L34" s="14">
+        <v/>
+      </c>
+      <c r="M34" s="14">
+        <v/>
+      </c>
     </row>
     <row r="35">
       <c r="B35" s="15" t="inlineStr">
@@ -1085,9 +1664,24 @@
         <v>0</v>
       </c>
       <c r="G35" s="16">
+        <v>4877</v>
+      </c>
+      <c r="H35" s="16">
+        <v>50401</v>
+      </c>
+      <c r="I35" s="16">
+        <v>0</v>
+      </c>
+      <c r="J35" s="16">
+        <v>0</v>
+      </c>
+      <c r="K35" s="16">
+        <v>0</v>
+      </c>
+      <c r="L35" s="16">
         <v>460774</v>
       </c>
-      <c r="H35" s="16">
+      <c r="M35" s="16">
         <v>17953</v>
       </c>
     </row>
@@ -1125,6 +1719,31 @@
           <t>-</t>
         </is>
       </c>
+      <c r="I36" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L36" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M36" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="B37" s="15" t="inlineStr">
@@ -1135,19 +1754,40 @@
       <c r="C37" s="16">
         <v/>
       </c>
-      <c r="D37" s="16">
-        <v>0</v>
-      </c>
-      <c r="E37" s="16">
-        <v>0</v>
-      </c>
-      <c r="F37" s="16">
-        <v>0</v>
+      <c r="D37" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G37" s="16">
         <v>0</v>
       </c>
       <c r="H37" s="16">
+        <v>0</v>
+      </c>
+      <c r="I37" s="16">
+        <v>0</v>
+      </c>
+      <c r="J37" s="16">
+        <v>0</v>
+      </c>
+      <c r="K37" s="16">
+        <v>0</v>
+      </c>
+      <c r="L37" s="16">
+        <v>0</v>
+      </c>
+      <c r="M37" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1160,19 +1800,40 @@
       <c r="C38" s="12">
         <v/>
       </c>
-      <c r="D38" s="12">
-        <v>0</v>
-      </c>
-      <c r="E38" s="12">
-        <v>0</v>
-      </c>
-      <c r="F38" s="12">
-        <v>0</v>
+      <c r="D38" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="G38" s="12">
         <v>0</v>
       </c>
       <c r="H38" s="12">
+        <v>0</v>
+      </c>
+      <c r="I38" s="12">
+        <v>0</v>
+      </c>
+      <c r="J38" s="12">
+        <v>0</v>
+      </c>
+      <c r="K38" s="12">
+        <v>0</v>
+      </c>
+      <c r="L38" s="12">
+        <v>0</v>
+      </c>
+      <c r="M38" s="12">
         <v>-96000</v>
       </c>
     </row>
@@ -1186,18 +1847,33 @@
         <v/>
       </c>
       <c r="D39" s="16">
+        <v>5000</v>
+      </c>
+      <c r="E39" s="16">
+        <v>20000</v>
+      </c>
+      <c r="F39" s="16">
+        <v>0</v>
+      </c>
+      <c r="G39" s="16">
+        <v>35000</v>
+      </c>
+      <c r="H39" s="16">
+        <v>113564</v>
+      </c>
+      <c r="I39" s="16">
         <v>354213</v>
       </c>
-      <c r="E39" s="16">
+      <c r="J39" s="16">
         <v>748113</v>
       </c>
-      <c r="F39" s="16">
+      <c r="K39" s="16">
         <v>1424365</v>
       </c>
-      <c r="G39" s="16">
+      <c r="L39" s="16">
         <v>6331664</v>
       </c>
-      <c r="H39" s="16">
+      <c r="M39" s="16">
         <v>8941903</v>
       </c>
     </row>
@@ -1211,18 +1887,33 @@
         <v/>
       </c>
       <c r="D40" s="12">
+        <v>-59926</v>
+      </c>
+      <c r="E40" s="12">
+        <v>-39281</v>
+      </c>
+      <c r="F40" s="12">
+        <v>-119836</v>
+      </c>
+      <c r="G40" s="12">
+        <v>-5834</v>
+      </c>
+      <c r="H40" s="12">
+        <v>-42731</v>
+      </c>
+      <c r="I40" s="12">
         <v>-205507</v>
       </c>
-      <c r="E40" s="12">
+      <c r="J40" s="12">
         <v>-122023</v>
       </c>
-      <c r="F40" s="12">
+      <c r="K40" s="12">
         <v>-1408986</v>
       </c>
-      <c r="G40" s="12">
+      <c r="L40" s="12">
         <v>-3359422</v>
       </c>
-      <c r="H40" s="12">
+      <c r="M40" s="12">
         <v>-6947195</v>
       </c>
     </row>
@@ -1236,18 +1927,33 @@
         <v/>
       </c>
       <c r="D41" s="16">
+        <v>-1491</v>
+      </c>
+      <c r="E41" s="16">
+        <v>-2514</v>
+      </c>
+      <c r="F41" s="16">
+        <v>-21249</v>
+      </c>
+      <c r="G41" s="16">
+        <v>-921</v>
+      </c>
+      <c r="H41" s="16">
+        <v>-16837</v>
+      </c>
+      <c r="I41" s="16">
         <v>-26242</v>
       </c>
-      <c r="E41" s="16">
+      <c r="J41" s="16">
         <v>-18669</v>
       </c>
-      <c r="F41" s="16">
+      <c r="K41" s="16">
         <v>-151133</v>
       </c>
-      <c r="G41" s="16">
+      <c r="L41" s="16">
         <v>-385556</v>
       </c>
-      <c r="H41" s="16">
+      <c r="M41" s="16">
         <v>-962932</v>
       </c>
     </row>
@@ -1270,13 +1976,38 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F42" s="12">
-        <v>0</v>
-      </c>
-      <c r="G42" s="12">
-        <v>0</v>
-      </c>
-      <c r="H42" s="12">
+      <c r="F42" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G42" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H42" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I42" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J42" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K42" s="12">
+        <v>0</v>
+      </c>
+      <c r="L42" s="12">
+        <v>0</v>
+      </c>
+      <c r="M42" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1299,13 +2030,38 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F43" s="16">
-        <v>0</v>
-      </c>
-      <c r="G43" s="16">
-        <v>0</v>
-      </c>
-      <c r="H43" s="16">
+      <c r="F43" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G43" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H43" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I43" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J43" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K43" s="16">
+        <v>0</v>
+      </c>
+      <c r="L43" s="16">
+        <v>0</v>
+      </c>
+      <c r="M43" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1328,13 +2084,38 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F44" s="12">
-        <v>0</v>
-      </c>
-      <c r="G44" s="12">
-        <v>0</v>
-      </c>
-      <c r="H44" s="12">
+      <c r="F44" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G44" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H44" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I44" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J44" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K44" s="12">
+        <v>0</v>
+      </c>
+      <c r="L44" s="12">
+        <v>0</v>
+      </c>
+      <c r="M44" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1357,13 +2138,38 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F45" s="16">
-        <v>0</v>
-      </c>
-      <c r="G45" s="16">
-        <v>0</v>
-      </c>
-      <c r="H45" s="16">
+      <c r="F45" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G45" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H45" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I45" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J45" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K45" s="16">
+        <v>0</v>
+      </c>
+      <c r="L45" s="16">
+        <v>0</v>
+      </c>
+      <c r="M45" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1386,13 +2192,38 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F46" s="12">
-        <v>0</v>
-      </c>
-      <c r="G46" s="12">
-        <v>0</v>
-      </c>
-      <c r="H46" s="12">
+      <c r="F46" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G46" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H46" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I46" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J46" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K46" s="12">
+        <v>0</v>
+      </c>
+      <c r="L46" s="12">
+        <v>0</v>
+      </c>
+      <c r="M46" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1415,13 +2246,38 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F47" s="16">
-        <v>0</v>
-      </c>
-      <c r="G47" s="16">
-        <v>0</v>
-      </c>
-      <c r="H47" s="16">
+      <c r="F47" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G47" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H47" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I47" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J47" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K47" s="16">
+        <v>0</v>
+      </c>
+      <c r="L47" s="16">
+        <v>0</v>
+      </c>
+      <c r="M47" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1444,13 +2300,38 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F48" s="12">
-        <v>0</v>
-      </c>
-      <c r="G48" s="12">
-        <v>0</v>
-      </c>
-      <c r="H48" s="12">
+      <c r="F48" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G48" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H48" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I48" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J48" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K48" s="12">
+        <v>0</v>
+      </c>
+      <c r="L48" s="12">
+        <v>0</v>
+      </c>
+      <c r="M48" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1473,13 +2354,38 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F49" s="16">
-        <v>0</v>
-      </c>
-      <c r="G49" s="16">
-        <v>0</v>
-      </c>
-      <c r="H49" s="16">
+      <c r="F49" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G49" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H49" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I49" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J49" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K49" s="16">
+        <v>0</v>
+      </c>
+      <c r="L49" s="16">
+        <v>0</v>
+      </c>
+      <c r="M49" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1493,18 +2399,33 @@
         <v/>
       </c>
       <c r="D50" s="12">
+        <v>-12974</v>
+      </c>
+      <c r="E50" s="12">
+        <v>-370324</v>
+      </c>
+      <c r="F50" s="12">
+        <v>-604023</v>
+      </c>
+      <c r="G50" s="12">
+        <v>-116769</v>
+      </c>
+      <c r="H50" s="12">
+        <v>-250245</v>
+      </c>
+      <c r="I50" s="12">
         <v>-380755</v>
       </c>
-      <c r="E50" s="12">
+      <c r="J50" s="12">
         <v>-233836</v>
       </c>
-      <c r="F50" s="12">
+      <c r="K50" s="12">
         <v>-91404</v>
       </c>
-      <c r="G50" s="12">
+      <c r="L50" s="12">
         <v>-3684</v>
       </c>
-      <c r="H50" s="12">
+      <c r="M50" s="12">
         <v>-302533</v>
       </c>
     </row>
@@ -1518,18 +2439,33 @@
         <v/>
       </c>
       <c r="D51" s="18">
+        <v>-69391</v>
+      </c>
+      <c r="E51" s="18">
+        <v>-392119</v>
+      </c>
+      <c r="F51" s="18">
+        <v>-745108</v>
+      </c>
+      <c r="G51" s="18">
+        <v>-83647</v>
+      </c>
+      <c r="H51" s="18">
+        <v>-145848</v>
+      </c>
+      <c r="I51" s="18">
         <v>-258291</v>
       </c>
-      <c r="E51" s="18">
+      <c r="J51" s="18">
         <v>626090</v>
       </c>
-      <c r="F51" s="18">
+      <c r="K51" s="18">
         <v>-227158</v>
       </c>
-      <c r="G51" s="18">
+      <c r="L51" s="18">
         <v>3043776</v>
       </c>
-      <c r="H51" s="18">
+      <c r="M51" s="18">
         <v>651196</v>
       </c>
     </row>
@@ -1543,18 +2479,33 @@
         <v/>
       </c>
       <c r="D52" s="20">
+        <v>38079</v>
+      </c>
+      <c r="E52" s="20">
+        <v>264396</v>
+      </c>
+      <c r="F52" s="20">
+        <v>239246</v>
+      </c>
+      <c r="G52" s="20">
+        <v>-557274</v>
+      </c>
+      <c r="H52" s="20">
+        <v>130896</v>
+      </c>
+      <c r="I52" s="20">
         <v>-52738</v>
       </c>
-      <c r="E52" s="20">
+      <c r="J52" s="20">
         <v>258099</v>
       </c>
-      <c r="F52" s="20">
+      <c r="K52" s="20">
         <v>-7798</v>
       </c>
-      <c r="G52" s="20">
+      <c r="L52" s="20">
         <v>1981777</v>
       </c>
-      <c r="H52" s="20">
+      <c r="M52" s="20">
         <v>-1768295</v>
       </c>
     </row>
@@ -1568,18 +2519,33 @@
         <v/>
       </c>
       <c r="D53" s="16">
+        <v>48815</v>
+      </c>
+      <c r="E53" s="16">
+        <v>86966</v>
+      </c>
+      <c r="F53" s="16">
+        <v>351362</v>
+      </c>
+      <c r="G53" s="16">
+        <v>590608</v>
+      </c>
+      <c r="H53" s="16">
+        <v>33334</v>
+      </c>
+      <c r="I53" s="16">
         <v>164230</v>
       </c>
-      <c r="E53" s="16">
+      <c r="J53" s="16">
         <v>111492</v>
       </c>
-      <c r="F53" s="16">
+      <c r="K53" s="16">
         <v>369591</v>
       </c>
-      <c r="G53" s="16">
+      <c r="L53" s="16">
         <v>361793</v>
       </c>
-      <c r="H53" s="16">
+      <c r="M53" s="16">
         <v>2349738</v>
       </c>
     </row>
@@ -1593,7 +2559,7 @@
         <v/>
       </c>
       <c r="D54" s="12">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E54" s="12">
         <v>0</v>
@@ -1602,9 +2568,24 @@
         <v>0</v>
       </c>
       <c r="G54" s="12">
+        <v>0</v>
+      </c>
+      <c r="H54" s="12">
+        <v>0</v>
+      </c>
+      <c r="I54" s="12">
+        <v>0</v>
+      </c>
+      <c r="J54" s="12">
+        <v>0</v>
+      </c>
+      <c r="K54" s="12">
+        <v>0</v>
+      </c>
+      <c r="L54" s="12">
         <v>6168</v>
       </c>
-      <c r="H54" s="12">
+      <c r="M54" s="12">
         <v>-26</v>
       </c>
     </row>
@@ -1618,18 +2599,33 @@
         <v/>
       </c>
       <c r="D55" s="18">
+        <v>86966</v>
+      </c>
+      <c r="E55" s="18">
+        <v>351362</v>
+      </c>
+      <c r="F55" s="18">
+        <v>590608</v>
+      </c>
+      <c r="G55" s="18">
+        <v>33334</v>
+      </c>
+      <c r="H55" s="18">
+        <v>164230</v>
+      </c>
+      <c r="I55" s="18">
         <v>111492</v>
       </c>
-      <c r="E55" s="18">
+      <c r="J55" s="18">
         <v>369591</v>
       </c>
-      <c r="F55" s="18">
+      <c r="K55" s="18">
         <v>361793</v>
       </c>
-      <c r="G55" s="18">
+      <c r="L55" s="18">
         <v>2349738</v>
       </c>
-      <c r="H55" s="18">
+      <c r="M55" s="18">
         <v>581417</v>
       </c>
     </row>
@@ -1646,15 +2642,30 @@
         <v>0</v>
       </c>
       <c r="E56" s="12">
-        <v>0</v>
+        <v>4374</v>
       </c>
       <c r="F56" s="12">
         <v>0</v>
       </c>
       <c r="G56" s="12">
+        <v>471095</v>
+      </c>
+      <c r="H56" s="12">
+        <v>64</v>
+      </c>
+      <c r="I56" s="12">
+        <v>0</v>
+      </c>
+      <c r="J56" s="12">
+        <v>0</v>
+      </c>
+      <c r="K56" s="12">
+        <v>0</v>
+      </c>
+      <c r="L56" s="12">
         <v>1019226</v>
       </c>
-      <c r="H56" s="12">
+      <c r="M56" s="12">
         <v>945033</v>
       </c>
     </row>
@@ -1678,6 +2689,21 @@
         <v/>
       </c>
       <c r="H57" s="2">
+        <v/>
+      </c>
+      <c r="I57" s="2">
+        <v/>
+      </c>
+      <c r="J57" s="2">
+        <v/>
+      </c>
+      <c r="K57" s="2">
+        <v/>
+      </c>
+      <c r="L57" s="2">
+        <v/>
+      </c>
+      <c r="M57" s="2">
         <v/>
       </c>
     </row>
